--- a/core/utils/docs_proj_p/distgradeunificada15.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada15.xlsx
@@ -560,7 +560,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,56 +575,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.5999"/>
-        <bgColor rgb="FFAFABAB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.3999"/>
-        <bgColor rgb="FF8FAADC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor rgb="FFC55A11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
-        <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
-        <bgColor rgb="FFBF9000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999"/>
-        <bgColor rgb="FFADB9CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
-        <bgColor rgb="FFADB9CA"/>
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
   </fills>
@@ -687,112 +639,56 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,66 +702,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF548235"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFADB9CA"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8FAADC"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFAFABAB"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFBF9000"/>
-      <rgbColor rgb="FFC55A11"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF8497B0"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF843C0B"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1049,115 +885,115 @@
   <dimension ref="A1:W180"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q41" activeCellId="0" sqref="Q41"/>
+      <selection pane="bottomLeft" activeCell="T188" activeCellId="0" sqref="T188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -1173,28 +1009,28 @@
       <c r="W2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -1210,28 +1046,28 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -1247,28 +1083,28 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -1284,28 +1120,28 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -1321,28 +1157,28 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1358,30 +1194,30 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1395,30 +1231,30 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1432,31 +1268,31 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -1469,31 +1305,31 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -1506,31 +1342,31 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1543,31 +1379,31 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -1580,31 +1416,31 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -1617,31 +1453,31 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1654,31 +1490,31 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -1691,31 +1527,31 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1728,31 +1564,31 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -1765,31 +1601,31 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1802,31 +1638,31 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1839,31 +1675,31 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -1876,31 +1712,31 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -1913,31 +1749,31 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -1950,31 +1786,31 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -1987,31 +1823,31 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -2024,31 +1860,31 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -2061,31 +1897,31 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -2098,31 +1934,31 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -2135,688 +1971,688 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9" t="n">
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="M45" s="9" t="n">
+      <c r="M45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="N45" s="9" t="n">
+      <c r="N45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -2832,28 +2668,28 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -2869,28 +2705,28 @@
       <c r="W48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -2906,28 +2742,28 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -2943,28 +2779,28 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -2980,28 +2816,28 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -3017,30 +2853,30 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -3054,30 +2890,30 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -3091,31 +2927,31 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -3128,31 +2964,31 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -3165,31 +3001,31 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -3202,31 +3038,31 @@
       <c r="W57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -3239,31 +3075,31 @@
       <c r="W58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -3276,31 +3112,31 @@
       <c r="W59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -3313,31 +3149,31 @@
       <c r="W60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="18" t="s">
+      <c r="A61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -3350,31 +3186,31 @@
       <c r="W61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -3387,31 +3223,31 @@
       <c r="W62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -3424,31 +3260,31 @@
       <c r="W63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -3461,31 +3297,31 @@
       <c r="W64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -3498,31 +3334,31 @@
       <c r="W65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -3535,31 +3371,31 @@
       <c r="W66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -3572,31 +3408,31 @@
       <c r="W67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="18" t="s">
+      <c r="A68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -3609,31 +3445,31 @@
       <c r="W68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -3646,31 +3482,31 @@
       <c r="W69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
@@ -3683,31 +3519,31 @@
       <c r="W70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="18" t="s">
+      <c r="A71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -3720,31 +3556,31 @@
       <c r="W71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="18" t="s">
+      <c r="A72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -3757,31 +3593,31 @@
       <c r="W72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -3794,35 +3630,35 @@
       <c r="W73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="18" t="s">
+      <c r="A74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
@@ -3831,145 +3667,145 @@
       <c r="W74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="18" t="s">
+      <c r="A75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
       <c r="T75" s="10"/>
       <c r="U75" s="10"/>
       <c r="V75" s="10"/>
       <c r="W75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="18" t="s">
+      <c r="A76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="18" t="s">
+      <c r="A77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
       <c r="W77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
@@ -3979,35 +3815,35 @@
       <c r="W78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="18" t="s">
+      <c r="A79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
@@ -4016,464 +3852,464 @@
       <c r="W79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="18" t="s">
+      <c r="A80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
       <c r="V80" s="10"/>
       <c r="W80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="18" t="s">
+      <c r="A81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
       <c r="T81" s="10"/>
       <c r="U81" s="10"/>
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="18" t="s">
+      <c r="A82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
       <c r="W82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="18" t="s">
+      <c r="A83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
       <c r="T83" s="10"/>
       <c r="U83" s="10"/>
       <c r="V83" s="10"/>
       <c r="W83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
       <c r="W84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="18" t="s">
+      <c r="A85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
       <c r="T85" s="10"/>
       <c r="U85" s="10"/>
       <c r="V85" s="10"/>
       <c r="W85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="18" t="s">
+      <c r="A86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="18" t="s">
+      <c r="A87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
       <c r="T87" s="10"/>
       <c r="U87" s="10"/>
       <c r="V87" s="10"/>
       <c r="W87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="18" t="s">
+      <c r="A88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="18" t="s">
+      <c r="A89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
       <c r="T89" s="10"/>
       <c r="U89" s="10"/>
       <c r="V89" s="10"/>
       <c r="W89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="18" t="s">
+      <c r="A90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G90" s="9" t="n">
+      <c r="G90" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9" t="n">
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
       <c r="V90" s="10"/>
       <c r="W90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="21" t="s">
+      <c r="A92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
@@ -4489,28 +4325,28 @@
       <c r="W92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="21" t="s">
+      <c r="A93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
@@ -4526,28 +4362,28 @@
       <c r="W93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
@@ -4563,28 +4399,28 @@
       <c r="W94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="21" t="s">
+      <c r="A95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
@@ -4600,28 +4436,28 @@
       <c r="W95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="21" t="s">
+      <c r="A96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
@@ -4637,28 +4473,28 @@
       <c r="W96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
@@ -4674,30 +4510,30 @@
       <c r="W97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="21" t="s">
+      <c r="A98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -4711,30 +4547,30 @@
       <c r="W98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="21" t="s">
+      <c r="A99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -4748,31 +4584,31 @@
       <c r="W99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="21" t="s">
+      <c r="A100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
@@ -4785,31 +4621,31 @@
       <c r="W100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="21" t="s">
+      <c r="A101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
@@ -4822,31 +4658,31 @@
       <c r="W101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
@@ -4859,31 +4695,31 @@
       <c r="W102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="21" t="s">
+      <c r="A103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
@@ -4896,31 +4732,31 @@
       <c r="W103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="21" t="s">
+      <c r="A104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
@@ -4933,31 +4769,31 @@
       <c r="W104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="21" t="s">
+      <c r="A105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
@@ -4970,31 +4806,31 @@
       <c r="W105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="21" t="s">
+      <c r="A106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
@@ -5007,31 +4843,31 @@
       <c r="W106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="21" t="s">
+      <c r="A107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
@@ -5044,31 +4880,31 @@
       <c r="W107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="21" t="s">
+      <c r="A108" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
@@ -5081,31 +4917,31 @@
       <c r="W108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="21" t="s">
+      <c r="A109" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
@@ -5118,31 +4954,31 @@
       <c r="W109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="21" t="s">
+      <c r="A110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
@@ -5155,31 +4991,31 @@
       <c r="W110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="21" t="s">
+      <c r="A111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
@@ -5192,31 +5028,31 @@
       <c r="W111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="21" t="s">
+      <c r="A112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
@@ -5229,31 +5065,31 @@
       <c r="W112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="21" t="s">
+      <c r="A113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
@@ -5266,31 +5102,31 @@
       <c r="W113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="21" t="s">
+      <c r="A114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D114" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
@@ -5303,31 +5139,31 @@
       <c r="W114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="21" t="s">
+      <c r="A115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
@@ -5340,31 +5176,31 @@
       <c r="W115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="21" t="s">
+      <c r="A116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
@@ -5377,31 +5213,31 @@
       <c r="W116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="21" t="s">
+      <c r="A117" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
@@ -5414,31 +5250,31 @@
       <c r="W117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="21" t="s">
+      <c r="A118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
@@ -5451,182 +5287,182 @@
       <c r="W118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="21" t="s">
+      <c r="A119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="9"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
       <c r="T119" s="10"/>
       <c r="U119" s="10"/>
       <c r="V119" s="10"/>
       <c r="W119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="21" t="s">
+      <c r="A120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
       <c r="T120" s="10"/>
       <c r="U120" s="10"/>
       <c r="V120" s="10"/>
       <c r="W120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="21" t="s">
+      <c r="A121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
       <c r="T121" s="10"/>
       <c r="U121" s="10"/>
       <c r="V121" s="10"/>
       <c r="W121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="21" t="s">
+      <c r="A122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="10"/>
       <c r="V122" s="10"/>
       <c r="W122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="21" t="s">
+      <c r="A123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
@@ -5636,511 +5472,511 @@
       <c r="W123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="21" t="s">
+      <c r="A124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
       <c r="T124" s="10"/>
       <c r="U124" s="10"/>
       <c r="V124" s="10"/>
       <c r="W124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="21" t="s">
+      <c r="A125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
       <c r="V125" s="10"/>
       <c r="W125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="21" t="s">
+      <c r="A126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="9"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
       <c r="T126" s="10"/>
       <c r="U126" s="10"/>
       <c r="V126" s="10"/>
       <c r="W126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="21" t="s">
+      <c r="A127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
-      <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
       <c r="T127" s="10"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
       <c r="W127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="21" t="s">
+      <c r="A128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D128" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="9"/>
-      <c r="S128" s="9"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
       <c r="T128" s="10"/>
       <c r="U128" s="10"/>
       <c r="V128" s="10"/>
       <c r="W128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="21" t="s">
+      <c r="A129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D129" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="9"/>
-      <c r="S129" s="9"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
       <c r="T129" s="10"/>
       <c r="U129" s="10"/>
       <c r="V129" s="10"/>
       <c r="W129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="21" t="s">
+      <c r="A130" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D130" s="20" t="s">
+      <c r="D130" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
       <c r="T130" s="10"/>
       <c r="U130" s="10"/>
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="E131" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
       <c r="T131" s="10"/>
       <c r="U131" s="10"/>
       <c r="V131" s="10"/>
       <c r="W131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="21" t="s">
+      <c r="A132" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E132" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
       <c r="T132" s="10"/>
       <c r="U132" s="10"/>
       <c r="V132" s="10"/>
       <c r="W132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="21" t="s">
+      <c r="A133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
       <c r="T133" s="10"/>
       <c r="U133" s="10"/>
       <c r="V133" s="10"/>
       <c r="W133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="21" t="s">
+      <c r="A134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D134" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
       <c r="T134" s="10"/>
       <c r="U134" s="10"/>
       <c r="V134" s="10"/>
       <c r="W134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="21" t="s">
+      <c r="A135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G135" s="9" t="n">
+      <c r="G135" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="H135" s="9" t="n">
+      <c r="H135" s="10" t="n">
         <v>156</v>
       </c>
-      <c r="I135" s="9" t="n">
+      <c r="I135" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9" t="n">
+      <c r="J135" s="10"/>
+      <c r="K135" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="L135" s="9" t="n">
+      <c r="L135" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="M135" s="9" t="n">
+      <c r="M135" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="N135" s="9" t="n">
+      <c r="N135" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
       <c r="T135" s="10"/>
       <c r="U135" s="10"/>
       <c r="V135" s="10"/>
       <c r="W135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="12"/>
-      <c r="P136" s="12"/>
-      <c r="Q136" s="12"/>
-      <c r="R136" s="12"/>
-      <c r="S136" s="12"/>
-      <c r="T136" s="12"/>
-      <c r="U136" s="12"/>
-      <c r="V136" s="12"/>
-      <c r="W136" s="12"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="11"/>
+      <c r="U136" s="11"/>
+      <c r="V136" s="11"/>
+      <c r="W136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="24" t="s">
+      <c r="A137" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E137" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F137" s="8" t="s">
+      <c r="E137" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
@@ -6156,28 +5992,28 @@
       <c r="W137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="24" t="s">
+      <c r="A138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D138" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E138" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="E138" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
@@ -6193,28 +6029,28 @@
       <c r="W138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="24" t="s">
+      <c r="A139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E139" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="8" t="s">
+      <c r="E139" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
@@ -6230,28 +6066,28 @@
       <c r="W139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="24" t="s">
+      <c r="A140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D140" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E140" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="8" t="s">
+      <c r="E140" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
@@ -6267,28 +6103,28 @@
       <c r="W140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="24" t="s">
+      <c r="A141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E141" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F141" s="8" t="s">
+      <c r="E141" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
@@ -6304,28 +6140,28 @@
       <c r="W141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142" s="24" t="s">
+      <c r="A142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D142" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E142" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="8" t="s">
+      <c r="E142" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
@@ -6341,30 +6177,30 @@
       <c r="W142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="24" t="s">
+      <c r="A143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D143" s="23" t="s">
+      <c r="D143" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E143" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F143" s="8" t="s">
+      <c r="E143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
@@ -6378,30 +6214,30 @@
       <c r="W143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" s="24" t="s">
+      <c r="A144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="D144" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E144" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F144" s="8" t="s">
+      <c r="E144" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -6415,31 +6251,31 @@
       <c r="W144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="24" t="s">
+      <c r="A145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C145" s="25" t="s">
+      <c r="C145" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="D145" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E145" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="E145" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
@@ -6452,31 +6288,31 @@
       <c r="W145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B146" s="24" t="s">
+      <c r="A146" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E146" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="8" t="s">
+      <c r="E146" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
@@ -6489,31 +6325,31 @@
       <c r="W146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="24" t="s">
+      <c r="A147" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E147" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="8" t="s">
+      <c r="E147" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
@@ -6526,31 +6362,31 @@
       <c r="W147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="24" t="s">
+      <c r="A148" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E148" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" s="8" t="s">
+      <c r="E148" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
@@ -6563,31 +6399,31 @@
       <c r="W148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="24" t="s">
+      <c r="A149" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" s="8" t="s">
+      <c r="E149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
@@ -6600,31 +6436,31 @@
       <c r="W149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B150" s="24" t="s">
+      <c r="A150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E150" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F150" s="8" t="s">
+      <c r="E150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
@@ -6637,31 +6473,31 @@
       <c r="W150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" s="24" t="s">
+      <c r="A151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E151" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F151" s="8" t="s">
+      <c r="E151" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
@@ -6674,31 +6510,31 @@
       <c r="W151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" s="24" t="s">
+      <c r="A152" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E152" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F152" s="8" t="s">
+      <c r="E152" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
@@ -6711,31 +6547,31 @@
       <c r="W152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B153" s="24" t="s">
+      <c r="A153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E153" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F153" s="8" t="s">
+      <c r="E153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="9"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
@@ -6748,31 +6584,31 @@
       <c r="W153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="24" t="s">
+      <c r="A154" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D154" s="23" t="s">
+      <c r="D154" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E154" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F154" s="8" t="s">
+      <c r="E154" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
-      <c r="M154" s="9"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
@@ -6785,31 +6621,31 @@
       <c r="W154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="24" t="s">
+      <c r="A155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="23" t="s">
+      <c r="D155" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E155" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F155" s="8" t="s">
+      <c r="E155" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
@@ -6822,31 +6658,31 @@
       <c r="W155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" s="24" t="s">
+      <c r="A156" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E156" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" s="8" t="s">
+      <c r="E156" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
@@ -6859,31 +6695,31 @@
       <c r="W156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="24" t="s">
+      <c r="A157" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D157" s="23" t="s">
+      <c r="D157" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E157" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="8" t="s">
+      <c r="E157" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F157" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
-      <c r="M157" s="11"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
@@ -6896,31 +6732,31 @@
       <c r="W157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="24" t="s">
+      <c r="A158" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="D158" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E158" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="8" t="s">
+      <c r="E158" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
-      <c r="M158" s="11"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
@@ -6933,31 +6769,31 @@
       <c r="W158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" s="24" t="s">
+      <c r="A159" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E159" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="8" t="s">
+      <c r="E159" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="11"/>
-      <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
@@ -6970,31 +6806,31 @@
       <c r="W159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" s="24" t="s">
+      <c r="A160" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="D160" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E160" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F160" s="8" t="s">
+      <c r="E160" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="11"/>
-      <c r="M160" s="11"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
@@ -7007,31 +6843,31 @@
       <c r="W160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" s="24" t="s">
+      <c r="A161" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E161" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F161" s="8" t="s">
+      <c r="E161" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="11"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="10"/>
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
@@ -7044,31 +6880,31 @@
       <c r="W161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="24" t="s">
+      <c r="A162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C162" s="25" t="s">
+      <c r="C162" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E162" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F162" s="8" t="s">
+      <c r="E162" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="11"/>
-      <c r="L162" s="11"/>
-      <c r="M162" s="11"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10"/>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
@@ -7081,31 +6917,31 @@
       <c r="W162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B163" s="24" t="s">
+      <c r="A163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E163" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F163" s="8" t="s">
+      <c r="E163" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="11"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
@@ -7118,182 +6954,182 @@
       <c r="W163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="24" t="s">
+      <c r="A164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D164" s="23" t="s">
+      <c r="D164" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E164" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F164" s="8" t="s">
+      <c r="E164" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
-      <c r="N164" s="9"/>
-      <c r="O164" s="9"/>
-      <c r="P164" s="9"/>
-      <c r="Q164" s="9"/>
-      <c r="R164" s="9"/>
-      <c r="S164" s="9"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
       <c r="T164" s="10"/>
       <c r="U164" s="10"/>
       <c r="V164" s="10"/>
       <c r="W164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="24" t="s">
+      <c r="A165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="D165" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E165" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F165" s="8" t="s">
+      <c r="E165" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
-      <c r="M165" s="9"/>
-      <c r="N165" s="9"/>
-      <c r="O165" s="9"/>
-      <c r="P165" s="9"/>
-      <c r="Q165" s="9"/>
-      <c r="R165" s="9"/>
-      <c r="S165" s="9"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
       <c r="V165" s="10"/>
       <c r="W165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="24" t="s">
+      <c r="A166" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E166" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F166" s="8" t="s">
+      <c r="E166" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
-      <c r="M166" s="9"/>
-      <c r="N166" s="9"/>
-      <c r="O166" s="9"/>
-      <c r="P166" s="9"/>
-      <c r="Q166" s="9"/>
-      <c r="R166" s="9"/>
-      <c r="S166" s="9"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
       <c r="T166" s="10"/>
       <c r="U166" s="10"/>
       <c r="V166" s="10"/>
       <c r="W166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" s="24" t="s">
+      <c r="A167" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E167" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="8" t="s">
+      <c r="E167" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="9"/>
-      <c r="N167" s="9"/>
-      <c r="O167" s="9"/>
-      <c r="P167" s="9"/>
-      <c r="Q167" s="9"/>
-      <c r="R167" s="9"/>
-      <c r="S167" s="9"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="10"/>
+      <c r="O167" s="10"/>
+      <c r="P167" s="10"/>
+      <c r="Q167" s="10"/>
+      <c r="R167" s="10"/>
+      <c r="S167" s="10"/>
       <c r="T167" s="10"/>
       <c r="U167" s="10"/>
       <c r="V167" s="10"/>
       <c r="W167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B168" s="24" t="s">
+      <c r="A168" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D168" s="23" t="s">
+      <c r="D168" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E168" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F168" s="8" t="s">
+      <c r="E168" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
-      <c r="M168" s="9"/>
-      <c r="N168" s="9"/>
-      <c r="O168" s="9"/>
-      <c r="P168" s="9"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
@@ -7303,460 +7139,460 @@
       <c r="W168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" s="24" t="s">
+      <c r="A169" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E169" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="8" t="s">
+      <c r="E169" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
-      <c r="M169" s="9"/>
-      <c r="N169" s="9"/>
-      <c r="O169" s="9"/>
-      <c r="P169" s="9"/>
-      <c r="Q169" s="9"/>
-      <c r="R169" s="9"/>
-      <c r="S169" s="9"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
       <c r="T169" s="10"/>
       <c r="U169" s="10"/>
       <c r="V169" s="10"/>
       <c r="W169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" s="24" t="s">
+      <c r="A170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E170" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F170" s="8" t="s">
+      <c r="E170" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
-      <c r="N170" s="9"/>
-      <c r="O170" s="9"/>
-      <c r="P170" s="9"/>
-      <c r="Q170" s="9"/>
-      <c r="R170" s="9"/>
-      <c r="S170" s="9"/>
-      <c r="T170" s="9"/>
-      <c r="U170" s="9"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10"/>
       <c r="V170" s="10"/>
       <c r="W170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" s="24" t="s">
+      <c r="A171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D171" s="23" t="s">
+      <c r="D171" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E171" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F171" s="8" t="s">
+      <c r="E171" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9"/>
-      <c r="L171" s="9"/>
-      <c r="M171" s="9"/>
-      <c r="N171" s="9"/>
-      <c r="O171" s="9"/>
-      <c r="P171" s="9"/>
-      <c r="Q171" s="9"/>
-      <c r="R171" s="9"/>
-      <c r="S171" s="9"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
       <c r="T171" s="10"/>
       <c r="U171" s="10"/>
       <c r="V171" s="10"/>
       <c r="W171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" s="24" t="s">
+      <c r="A172" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E172" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F172" s="8" t="s">
+      <c r="E172" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="9"/>
-      <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
-      <c r="N172" s="9"/>
-      <c r="O172" s="9"/>
-      <c r="P172" s="9"/>
-      <c r="Q172" s="9"/>
-      <c r="R172" s="9"/>
-      <c r="S172" s="9"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="10"/>
+      <c r="O172" s="10"/>
+      <c r="P172" s="10"/>
+      <c r="Q172" s="10"/>
+      <c r="R172" s="10"/>
+      <c r="S172" s="10"/>
       <c r="T172" s="10"/>
       <c r="U172" s="10"/>
       <c r="V172" s="10"/>
       <c r="W172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" s="24" t="s">
+      <c r="A173" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E173" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F173" s="8" t="s">
+      <c r="E173" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
-      <c r="K173" s="9"/>
-      <c r="L173" s="9"/>
-      <c r="M173" s="9"/>
-      <c r="N173" s="9"/>
-      <c r="O173" s="9"/>
-      <c r="P173" s="9"/>
-      <c r="Q173" s="9"/>
-      <c r="R173" s="9"/>
-      <c r="S173" s="9"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="10"/>
+      <c r="O173" s="10"/>
+      <c r="P173" s="10"/>
+      <c r="Q173" s="10"/>
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
       <c r="T173" s="10"/>
       <c r="U173" s="10"/>
       <c r="V173" s="10"/>
       <c r="W173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="24" t="s">
+      <c r="A174" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E174" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F174" s="8" t="s">
+      <c r="E174" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="9"/>
-      <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
-      <c r="N174" s="9"/>
-      <c r="O174" s="9"/>
-      <c r="P174" s="9"/>
-      <c r="Q174" s="9"/>
-      <c r="R174" s="9"/>
-      <c r="S174" s="9"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="10"/>
+      <c r="O174" s="10"/>
+      <c r="P174" s="10"/>
+      <c r="Q174" s="10"/>
+      <c r="R174" s="10"/>
+      <c r="S174" s="10"/>
       <c r="T174" s="10"/>
       <c r="U174" s="10"/>
       <c r="V174" s="10"/>
       <c r="W174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" s="24" t="s">
+      <c r="A175" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E175" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F175" s="8" t="s">
+      <c r="E175" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
-      <c r="K175" s="9"/>
-      <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
-      <c r="N175" s="9"/>
-      <c r="O175" s="9"/>
-      <c r="P175" s="9"/>
-      <c r="Q175" s="9"/>
-      <c r="R175" s="9"/>
-      <c r="S175" s="9"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
+      <c r="O175" s="10"/>
+      <c r="P175" s="10"/>
+      <c r="Q175" s="10"/>
+      <c r="R175" s="10"/>
+      <c r="S175" s="10"/>
       <c r="T175" s="10"/>
       <c r="U175" s="10"/>
       <c r="V175" s="10"/>
       <c r="W175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" s="24" t="s">
+      <c r="A176" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E176" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F176" s="8" t="s">
+      <c r="E176" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
-      <c r="K176" s="9"/>
-      <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
-      <c r="N176" s="9"/>
-      <c r="O176" s="9"/>
-      <c r="P176" s="9"/>
-      <c r="Q176" s="9"/>
-      <c r="R176" s="9"/>
-      <c r="S176" s="9"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10"/>
+      <c r="O176" s="10"/>
+      <c r="P176" s="10"/>
+      <c r="Q176" s="10"/>
+      <c r="R176" s="10"/>
+      <c r="S176" s="10"/>
       <c r="T176" s="10"/>
       <c r="U176" s="10"/>
       <c r="V176" s="10"/>
       <c r="W176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" s="24" t="s">
+      <c r="A177" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E177" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F177" s="8" t="s">
+      <c r="E177" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F177" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
-      <c r="N177" s="9"/>
-      <c r="O177" s="9"/>
-      <c r="P177" s="9"/>
-      <c r="Q177" s="9"/>
-      <c r="R177" s="9"/>
-      <c r="S177" s="9"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+      <c r="Q177" s="10"/>
+      <c r="R177" s="10"/>
+      <c r="S177" s="10"/>
       <c r="T177" s="10"/>
       <c r="U177" s="10"/>
       <c r="V177" s="10"/>
       <c r="W177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" s="24" t="s">
+      <c r="A178" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D178" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E178" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F178" s="8" t="s">
+      <c r="E178" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
-      <c r="N178" s="9"/>
-      <c r="O178" s="9"/>
-      <c r="P178" s="9"/>
-      <c r="Q178" s="9"/>
-      <c r="R178" s="9"/>
-      <c r="S178" s="9"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10"/>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
       <c r="T178" s="10"/>
       <c r="U178" s="10"/>
       <c r="V178" s="10"/>
       <c r="W178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" s="24" t="s">
+      <c r="A179" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D179" s="23" t="s">
+      <c r="D179" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E179" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F179" s="8" t="s">
+      <c r="E179" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
-      <c r="N179" s="9"/>
-      <c r="O179" s="9"/>
-      <c r="P179" s="9"/>
-      <c r="Q179" s="9"/>
-      <c r="R179" s="9"/>
-      <c r="S179" s="9"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
       <c r="T179" s="10"/>
       <c r="U179" s="10"/>
       <c r="V179" s="10"/>
       <c r="W179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" s="24" t="s">
+      <c r="A180" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E180" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F180" s="26" t="s">
+      <c r="E180" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G180" s="9" t="n">
+      <c r="G180" s="10" t="n">
         <v>141</v>
       </c>
-      <c r="H180" s="9" t="n">
+      <c r="H180" s="10" t="n">
         <v>105</v>
       </c>
-      <c r="I180" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="J180" s="9" t="n">
+      <c r="I180" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="J180" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K180" s="9" t="n">
+      <c r="K180" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="L180" s="9" t="n">
+      <c r="L180" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="M180" s="9" t="n">
+      <c r="M180" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="9" t="n">
+      <c r="N180" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="O180" s="9"/>
-      <c r="P180" s="9"/>
-      <c r="Q180" s="9"/>
-      <c r="R180" s="9"/>
-      <c r="S180" s="9"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="10"/>
+      <c r="S180" s="10"/>
       <c r="T180" s="10"/>
       <c r="U180" s="10"/>
       <c r="V180" s="10"/>

--- a/core/utils/docs_proj_p/distgradeunificada15.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada15.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="155">
   <si>
     <t xml:space="preserve">PROJETO</t>
   </si>
@@ -469,19 +469,22 @@
     <t xml:space="preserve">RM 44</t>
   </si>
   <si>
+    <t xml:space="preserve">BERMUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASCULINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMININO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAQUETA ESCOLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALÇA LEGGING</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASCULINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALÇA LEGGING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMININO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAQUETA ESCOLAR</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,22 +542,43 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFD7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFD7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -639,7 +663,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,32 +688,60 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -702,6 +754,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -882,20 +994,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W180"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T188" activeCellId="0" sqref="T188"/>
+      <selection pane="bottomLeft" activeCell="P81" activeCellId="0" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16"/>
   </cols>
@@ -2035,12 +2147,22 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="P30" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="R30" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="S30" s="10" t="n">
+        <v>30</v>
+      </c>
       <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="U30" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -2066,18 +2188,40 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="J31" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>220</v>
+      </c>
+      <c r="L31" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="M31" s="10" t="n">
+        <v>178</v>
+      </c>
+      <c r="N31" s="10" t="n">
+        <v>220</v>
+      </c>
+      <c r="O31" s="10" t="n">
+        <v>168</v>
+      </c>
+      <c r="P31" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="R31" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="S31" s="10" t="n">
+        <v>12</v>
+      </c>
       <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
+      <c r="U31" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -2103,18 +2247,40 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="J32" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="L32" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="M32" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="N32" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="O32" s="10" t="n">
+        <v>186</v>
+      </c>
+      <c r="P32" s="10" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="10" t="n">
+        <v>140</v>
+      </c>
+      <c r="R32" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="S32" s="10" t="n">
+        <v>30</v>
+      </c>
       <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
+      <c r="U32" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -2140,13 +2306,27 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="J33" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="M33" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="N33" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -2177,18 +2357,40 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
+      <c r="J34" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="L34" s="10" t="n">
+        <v>320</v>
+      </c>
+      <c r="M34" s="10" t="n">
+        <v>350</v>
+      </c>
+      <c r="N34" s="10" t="n">
+        <v>320</v>
+      </c>
+      <c r="O34" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="P34" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q34" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="R34" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="S34" s="10" t="n">
+        <v>16</v>
+      </c>
       <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
+      <c r="U34" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -2586,15 +2788,9 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="M45" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
@@ -2606,29 +2802,29 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
@@ -3694,12 +3890,22 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
+      <c r="P75" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q75" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R75" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S75" s="10" t="n">
+        <v>22</v>
+      </c>
       <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
+      <c r="U75" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="V75" s="10"/>
       <c r="W75" s="10"/>
     </row>
@@ -3725,18 +3931,40 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
+      <c r="J76" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K76" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="L76" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="M76" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="N76" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="O76" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="P76" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R76" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S76" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
+      <c r="U76" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
     </row>
@@ -3762,16 +3990,36 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
+      <c r="J77" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="K77" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L77" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="M77" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="N77" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="O77" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="P77" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q77" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R77" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S77" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
@@ -3799,12 +4047,24 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
+      <c r="J78" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K78" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L78" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="M78" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N78" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
@@ -3836,18 +4096,40 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
+      <c r="J79" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K79" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="L79" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="M79" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="N79" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O79" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="P79" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q79" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="R79" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S79" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
+      <c r="U79" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="V79" s="10"/>
       <c r="W79" s="10"/>
     </row>
@@ -3873,15 +4155,33 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
+      <c r="J80" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="K80" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="L80" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M80" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N80" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="O80" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="P80" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
@@ -4240,17 +4540,13 @@
       <c r="F90" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G90" s="10" t="n">
-        <v>55</v>
-      </c>
+      <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
-      <c r="M90" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -4263,29 +4559,29 @@
       <c r="W90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
     </row>
     <row r="92" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
@@ -4298,10 +4594,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>27</v>
@@ -4335,10 +4631,10 @@
         <v>7</v>
       </c>
       <c r="D93" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>29</v>
@@ -4372,10 +4668,10 @@
         <v>31</v>
       </c>
       <c r="D94" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>32</v>
@@ -4409,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>34</v>
@@ -4446,10 +4742,10 @@
         <v>36</v>
       </c>
       <c r="D96" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>37</v>
@@ -4483,10 +4779,10 @@
         <v>9</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>39</v>
@@ -4520,10 +4816,10 @@
         <v>41</v>
       </c>
       <c r="D98" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>42</v>
@@ -4557,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>44</v>
@@ -4594,10 +4890,10 @@
         <v>46</v>
       </c>
       <c r="D100" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>47</v>
@@ -4631,10 +4927,10 @@
         <v>11</v>
       </c>
       <c r="D101" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>49</v>
@@ -4668,10 +4964,10 @@
         <v>51</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>52</v>
@@ -4705,10 +5001,10 @@
         <v>12</v>
       </c>
       <c r="D103" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>54</v>
@@ -4742,10 +5038,10 @@
         <v>56</v>
       </c>
       <c r="D104" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>57</v>
@@ -4779,10 +5075,10 @@
         <v>13</v>
       </c>
       <c r="D105" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>59</v>
@@ -4816,10 +5112,10 @@
         <v>61</v>
       </c>
       <c r="D106" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>62</v>
@@ -4853,10 +5149,10 @@
         <v>14</v>
       </c>
       <c r="D107" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>64</v>
@@ -4890,10 +5186,10 @@
         <v>66</v>
       </c>
       <c r="D108" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>67</v>
@@ -4927,10 +5223,10 @@
         <v>69</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>70</v>
@@ -4964,10 +5260,10 @@
         <v>72</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>73</v>
@@ -5001,10 +5297,10 @@
         <v>75</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>76</v>
@@ -5038,10 +5334,10 @@
         <v>78</v>
       </c>
       <c r="D112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>79</v>
@@ -5075,10 +5371,10 @@
         <v>81</v>
       </c>
       <c r="D113" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>82</v>
@@ -5112,10 +5408,10 @@
         <v>84</v>
       </c>
       <c r="D114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>85</v>
@@ -5149,10 +5445,10 @@
         <v>87</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>88</v>
@@ -5186,10 +5482,10 @@
         <v>90</v>
       </c>
       <c r="D116" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>91</v>
@@ -5223,10 +5519,10 @@
         <v>93</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>94</v>
@@ -5260,10 +5556,10 @@
         <v>96</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>97</v>
@@ -5297,10 +5593,10 @@
         <v>99</v>
       </c>
       <c r="D119" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>100</v>
@@ -5334,10 +5630,10 @@
         <v>102</v>
       </c>
       <c r="D120" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>103</v>
@@ -5351,12 +5647,22 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-      <c r="Q120" s="10"/>
-      <c r="R120" s="10"/>
-      <c r="S120" s="10"/>
+      <c r="P120" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q120" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="R120" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S120" s="10" t="n">
+        <v>12</v>
+      </c>
       <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
+      <c r="U120" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="V120" s="10"/>
       <c r="W120" s="10"/>
     </row>
@@ -5371,10 +5677,10 @@
         <v>105</v>
       </c>
       <c r="D121" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>106</v>
@@ -5382,18 +5688,40 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
-      <c r="Q121" s="10"/>
-      <c r="R121" s="10"/>
-      <c r="S121" s="10"/>
+      <c r="J121" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K121" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="L121" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="M121" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="N121" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="O121" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="P121" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q121" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R121" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S121" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="T121" s="10"/>
-      <c r="U121" s="10"/>
+      <c r="U121" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V121" s="10"/>
       <c r="W121" s="10"/>
     </row>
@@ -5408,10 +5736,10 @@
         <v>108</v>
       </c>
       <c r="D122" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>109</v>
@@ -5419,15 +5747,33 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="10"/>
-      <c r="P122" s="10"/>
-      <c r="Q122" s="10"/>
-      <c r="R122" s="10"/>
+      <c r="J122" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="K122" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L122" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="M122" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="N122" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="O122" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="P122" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q122" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="R122" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
       <c r="U122" s="10"/>
@@ -5445,10 +5791,10 @@
         <v>111</v>
       </c>
       <c r="D123" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>112</v>
@@ -5456,13 +5802,27 @@
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
+      <c r="J123" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K123" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L123" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="N123" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q123" s="10"/>
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
@@ -5482,10 +5842,10 @@
         <v>114</v>
       </c>
       <c r="D124" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>115</v>
@@ -5493,18 +5853,40 @@
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-      <c r="Q124" s="10"/>
-      <c r="R124" s="10"/>
-      <c r="S124" s="10"/>
+      <c r="J124" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K124" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="L124" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="M124" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="N124" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O124" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="P124" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q124" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="R124" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S124" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="T124" s="10"/>
-      <c r="U124" s="10"/>
+      <c r="U124" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V124" s="10"/>
       <c r="W124" s="10"/>
     </row>
@@ -5519,10 +5901,10 @@
         <v>117</v>
       </c>
       <c r="D125" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>118</v>
@@ -5530,15 +5912,33 @@
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10"/>
-      <c r="R125" s="10"/>
+      <c r="J125" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K125" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="L125" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="M125" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="N125" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="O125" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="P125" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q125" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R125" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
       <c r="U125" s="10"/>
@@ -5556,10 +5956,10 @@
         <v>120</v>
       </c>
       <c r="D126" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>121</v>
@@ -5593,10 +5993,10 @@
         <v>123</v>
       </c>
       <c r="D127" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>124</v>
@@ -5630,10 +6030,10 @@
         <v>126</v>
       </c>
       <c r="D128" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>127</v>
@@ -5667,10 +6067,10 @@
         <v>129</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>130</v>
@@ -5704,10 +6104,10 @@
         <v>132</v>
       </c>
       <c r="D130" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>133</v>
@@ -5741,10 +6141,10 @@
         <v>135</v>
       </c>
       <c r="D131" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>136</v>
@@ -5778,10 +6178,10 @@
         <v>138</v>
       </c>
       <c r="D132" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>139</v>
@@ -5815,10 +6215,10 @@
         <v>141</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>142</v>
@@ -5852,10 +6252,10 @@
         <v>144</v>
       </c>
       <c r="D134" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>145</v>
@@ -5889,36 +6289,22 @@
         <v>147</v>
       </c>
       <c r="D135" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G135" s="10" t="n">
-        <v>57</v>
-      </c>
-      <c r="H135" s="10" t="n">
-        <v>156</v>
-      </c>
-      <c r="I135" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
       <c r="J135" s="10"/>
-      <c r="K135" s="10" t="n">
-        <v>53</v>
-      </c>
-      <c r="L135" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="M135" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N135" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
@@ -5930,29 +6316,29 @@
       <c r="W135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="11"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="11"/>
-      <c r="V136" s="11"/>
-      <c r="W136" s="11"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
+      <c r="U136" s="14"/>
+      <c r="V136" s="14"/>
+      <c r="W136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
@@ -5965,7 +6351,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>26</v>
@@ -6002,7 +6388,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>26</v>
@@ -6039,7 +6425,7 @@
         <v>31</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>26</v>
@@ -6076,7 +6462,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>26</v>
@@ -6113,7 +6499,7 @@
         <v>36</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>26</v>
@@ -6150,7 +6536,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>26</v>
@@ -6187,7 +6573,7 @@
         <v>41</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>26</v>
@@ -6224,7 +6610,7 @@
         <v>10</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>26</v>
@@ -6261,7 +6647,7 @@
         <v>46</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>26</v>
@@ -6298,7 +6684,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>26</v>
@@ -6335,7 +6721,7 @@
         <v>51</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>26</v>
@@ -6372,7 +6758,7 @@
         <v>12</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>26</v>
@@ -6409,7 +6795,7 @@
         <v>56</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>26</v>
@@ -6446,7 +6832,7 @@
         <v>13</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>26</v>
@@ -6483,7 +6869,7 @@
         <v>61</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>26</v>
@@ -6520,7 +6906,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>26</v>
@@ -6557,7 +6943,7 @@
         <v>66</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>26</v>
@@ -6594,7 +6980,7 @@
         <v>69</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>26</v>
@@ -6631,7 +7017,7 @@
         <v>72</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>26</v>
@@ -6668,7 +7054,7 @@
         <v>75</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>26</v>
@@ -6705,7 +7091,7 @@
         <v>78</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>26</v>
@@ -6742,7 +7128,7 @@
         <v>81</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>26</v>
@@ -6779,7 +7165,7 @@
         <v>84</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>26</v>
@@ -6816,7 +7202,7 @@
         <v>87</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>26</v>
@@ -6853,7 +7239,7 @@
         <v>90</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>26</v>
@@ -6890,7 +7276,7 @@
         <v>93</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>26</v>
@@ -6927,7 +7313,7 @@
         <v>96</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>26</v>
@@ -6964,7 +7350,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>26</v>
@@ -7001,7 +7387,7 @@
         <v>102</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>26</v>
@@ -7038,7 +7424,7 @@
         <v>105</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>26</v>
@@ -7075,7 +7461,7 @@
         <v>108</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>26</v>
@@ -7112,7 +7498,7 @@
         <v>111</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>26</v>
@@ -7149,7 +7535,7 @@
         <v>114</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>26</v>
@@ -7186,7 +7572,7 @@
         <v>117</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>26</v>
@@ -7223,7 +7609,7 @@
         <v>120</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>26</v>
@@ -7260,7 +7646,7 @@
         <v>123</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>26</v>
@@ -7297,7 +7683,7 @@
         <v>126</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>26</v>
@@ -7334,7 +7720,7 @@
         <v>129</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>26</v>
@@ -7371,7 +7757,7 @@
         <v>132</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>26</v>
@@ -7408,7 +7794,7 @@
         <v>135</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>26</v>
@@ -7445,7 +7831,7 @@
         <v>138</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>26</v>
@@ -7482,7 +7868,7 @@
         <v>141</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>26</v>
@@ -7519,7 +7905,7 @@
         <v>144</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>26</v>
@@ -7556,7 +7942,7 @@
         <v>147</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>26</v>
@@ -7564,30 +7950,14 @@
       <c r="F180" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G180" s="10" t="n">
-        <v>141</v>
-      </c>
-      <c r="H180" s="10" t="n">
-        <v>105</v>
-      </c>
-      <c r="I180" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="J180" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="L180" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="M180" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
       <c r="Q180" s="10"/>
@@ -7597,6 +7967,3337 @@
       <c r="U180" s="10"/>
       <c r="V180" s="10"/>
       <c r="W180" s="10"/>
+    </row>
+    <row r="181" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="6"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+      <c r="L181" s="13"/>
+      <c r="M181" s="13"/>
+      <c r="N181" s="13"/>
+      <c r="O181" s="13"/>
+      <c r="P181" s="13"/>
+      <c r="Q181" s="13"/>
+      <c r="R181" s="13"/>
+      <c r="S181" s="13"/>
+      <c r="T181" s="13"/>
+      <c r="U181" s="13"/>
+      <c r="V181" s="13"/>
+      <c r="W181" s="13"/>
+    </row>
+    <row r="182" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10"/>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10"/>
+      <c r="U182" s="10"/>
+      <c r="V182" s="10"/>
+      <c r="W182" s="10"/>
+    </row>
+    <row r="183" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+      <c r="R183" s="10"/>
+      <c r="S183" s="10"/>
+      <c r="T183" s="10"/>
+      <c r="U183" s="10"/>
+      <c r="V183" s="10"/>
+      <c r="W183" s="10"/>
+    </row>
+    <row r="184" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="10"/>
+      <c r="R184" s="10"/>
+      <c r="S184" s="10"/>
+      <c r="T184" s="10"/>
+      <c r="U184" s="10"/>
+      <c r="V184" s="10"/>
+      <c r="W184" s="10"/>
+    </row>
+    <row r="185" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="10"/>
+      <c r="M185" s="10"/>
+      <c r="N185" s="10"/>
+      <c r="O185" s="10"/>
+      <c r="P185" s="10"/>
+      <c r="Q185" s="10"/>
+      <c r="R185" s="10"/>
+      <c r="S185" s="10"/>
+      <c r="T185" s="10"/>
+      <c r="U185" s="10"/>
+      <c r="V185" s="10"/>
+      <c r="W185" s="10"/>
+    </row>
+    <row r="186" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
+      <c r="L186" s="10"/>
+      <c r="M186" s="10"/>
+      <c r="N186" s="10"/>
+      <c r="O186" s="10"/>
+      <c r="P186" s="10"/>
+      <c r="Q186" s="10"/>
+      <c r="R186" s="10"/>
+      <c r="S186" s="10"/>
+      <c r="T186" s="10"/>
+      <c r="U186" s="10"/>
+      <c r="V186" s="10"/>
+      <c r="W186" s="10"/>
+    </row>
+    <row r="187" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10"/>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
+      <c r="T187" s="10"/>
+      <c r="U187" s="10"/>
+      <c r="V187" s="10"/>
+      <c r="W187" s="10"/>
+    </row>
+    <row r="188" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
+      <c r="R188" s="10"/>
+      <c r="S188" s="10"/>
+      <c r="T188" s="10"/>
+      <c r="U188" s="10"/>
+      <c r="V188" s="10"/>
+      <c r="W188" s="10"/>
+    </row>
+    <row r="189" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+      <c r="R189" s="10"/>
+      <c r="S189" s="10"/>
+      <c r="T189" s="10"/>
+      <c r="U189" s="10"/>
+      <c r="V189" s="10"/>
+      <c r="W189" s="10"/>
+    </row>
+    <row r="190" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+      <c r="R190" s="10"/>
+      <c r="S190" s="10"/>
+      <c r="T190" s="10"/>
+      <c r="U190" s="10"/>
+      <c r="V190" s="10"/>
+      <c r="W190" s="10"/>
+    </row>
+    <row r="191" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
+      <c r="T191" s="10"/>
+      <c r="U191" s="10"/>
+      <c r="V191" s="10"/>
+      <c r="W191" s="10"/>
+    </row>
+    <row r="192" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+      <c r="T192" s="10"/>
+      <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+    </row>
+    <row r="193" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10"/>
+      <c r="S193" s="10"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+    </row>
+    <row r="194" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+      <c r="U194" s="10"/>
+      <c r="V194" s="10"/>
+      <c r="W194" s="10"/>
+    </row>
+    <row r="195" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
+      <c r="R195" s="10"/>
+      <c r="S195" s="10"/>
+      <c r="T195" s="10"/>
+      <c r="U195" s="10"/>
+      <c r="V195" s="10"/>
+      <c r="W195" s="10"/>
+    </row>
+    <row r="196" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+      <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+    </row>
+    <row r="197" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+    </row>
+    <row r="198" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10"/>
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+    </row>
+    <row r="199" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+      <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+    </row>
+    <row r="200" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+    </row>
+    <row r="201" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="10"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
+      <c r="R201" s="10"/>
+      <c r="S201" s="10"/>
+      <c r="T201" s="10"/>
+      <c r="U201" s="10"/>
+      <c r="V201" s="10"/>
+      <c r="W201" s="10"/>
+    </row>
+    <row r="202" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="10"/>
+      <c r="N202" s="10"/>
+      <c r="O202" s="10"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10"/>
+      <c r="S202" s="10"/>
+      <c r="T202" s="10"/>
+      <c r="U202" s="10"/>
+      <c r="V202" s="10"/>
+      <c r="W202" s="10"/>
+    </row>
+    <row r="203" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+      <c r="U203" s="10"/>
+      <c r="V203" s="10"/>
+      <c r="W203" s="10"/>
+    </row>
+    <row r="204" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="K204" s="10"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="10"/>
+      <c r="N204" s="10"/>
+      <c r="O204" s="10"/>
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+      <c r="R204" s="10"/>
+      <c r="S204" s="10"/>
+      <c r="T204" s="10"/>
+      <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+    </row>
+    <row r="205" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="10"/>
+      <c r="N205" s="10"/>
+      <c r="O205" s="10"/>
+      <c r="P205" s="10"/>
+      <c r="Q205" s="10"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="10"/>
+      <c r="T205" s="10"/>
+      <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+    </row>
+    <row r="206" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="10"/>
+      <c r="N206" s="10"/>
+      <c r="O206" s="10"/>
+      <c r="P206" s="10"/>
+      <c r="Q206" s="10"/>
+      <c r="R206" s="10"/>
+      <c r="S206" s="10"/>
+      <c r="T206" s="10"/>
+      <c r="U206" s="10"/>
+      <c r="V206" s="10"/>
+      <c r="W206" s="10"/>
+    </row>
+    <row r="207" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="10"/>
+      <c r="N207" s="10"/>
+      <c r="O207" s="10"/>
+      <c r="P207" s="10"/>
+      <c r="Q207" s="10"/>
+      <c r="R207" s="10"/>
+      <c r="S207" s="10"/>
+      <c r="T207" s="10"/>
+      <c r="U207" s="10"/>
+      <c r="V207" s="10"/>
+      <c r="W207" s="10"/>
+    </row>
+    <row r="208" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10"/>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+      <c r="U208" s="10"/>
+      <c r="V208" s="10"/>
+      <c r="W208" s="10"/>
+    </row>
+    <row r="209" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="10"/>
+      <c r="N209" s="10"/>
+      <c r="O209" s="10"/>
+      <c r="P209" s="10"/>
+      <c r="Q209" s="10"/>
+      <c r="R209" s="10"/>
+      <c r="S209" s="10"/>
+      <c r="T209" s="10"/>
+      <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+    </row>
+    <row r="210" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="10"/>
+      <c r="P210" s="10"/>
+      <c r="Q210" s="10"/>
+      <c r="R210" s="10"/>
+      <c r="S210" s="10"/>
+      <c r="T210" s="10"/>
+      <c r="U210" s="10"/>
+      <c r="V210" s="10"/>
+      <c r="W210" s="10"/>
+    </row>
+    <row r="211" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
+      <c r="L211" s="10"/>
+      <c r="M211" s="10"/>
+      <c r="N211" s="10"/>
+      <c r="O211" s="10"/>
+      <c r="P211" s="10"/>
+      <c r="Q211" s="10"/>
+      <c r="R211" s="10"/>
+      <c r="S211" s="10"/>
+      <c r="T211" s="10"/>
+      <c r="U211" s="10"/>
+      <c r="V211" s="10"/>
+      <c r="W211" s="10"/>
+    </row>
+    <row r="212" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="K212" s="10"/>
+      <c r="L212" s="10"/>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
+      <c r="O212" s="10"/>
+      <c r="P212" s="10"/>
+      <c r="Q212" s="10"/>
+      <c r="R212" s="10"/>
+      <c r="S212" s="10"/>
+      <c r="T212" s="10"/>
+      <c r="U212" s="10"/>
+      <c r="V212" s="10"/>
+      <c r="W212" s="10"/>
+    </row>
+    <row r="213" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="10"/>
+      <c r="N213" s="10"/>
+      <c r="O213" s="10"/>
+      <c r="P213" s="10"/>
+      <c r="Q213" s="10"/>
+      <c r="R213" s="10"/>
+      <c r="S213" s="10"/>
+      <c r="T213" s="10"/>
+      <c r="U213" s="10"/>
+      <c r="V213" s="10"/>
+      <c r="W213" s="10"/>
+    </row>
+    <row r="214" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+      <c r="K214" s="10"/>
+      <c r="L214" s="10"/>
+      <c r="M214" s="10"/>
+      <c r="N214" s="10"/>
+      <c r="O214" s="10"/>
+      <c r="P214" s="10"/>
+      <c r="Q214" s="10"/>
+      <c r="R214" s="10"/>
+      <c r="S214" s="10"/>
+      <c r="T214" s="10"/>
+      <c r="U214" s="10"/>
+      <c r="V214" s="10"/>
+      <c r="W214" s="10"/>
+    </row>
+    <row r="215" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="10"/>
+      <c r="N215" s="10"/>
+      <c r="O215" s="10"/>
+      <c r="P215" s="10"/>
+      <c r="Q215" s="10"/>
+      <c r="R215" s="10"/>
+      <c r="S215" s="10"/>
+      <c r="T215" s="10"/>
+      <c r="U215" s="10"/>
+      <c r="V215" s="10"/>
+      <c r="W215" s="10"/>
+    </row>
+    <row r="216" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+      <c r="U216" s="10"/>
+      <c r="V216" s="10"/>
+      <c r="W216" s="10"/>
+    </row>
+    <row r="217" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10"/>
+      <c r="R217" s="10"/>
+      <c r="S217" s="10"/>
+      <c r="T217" s="10"/>
+      <c r="U217" s="10"/>
+      <c r="V217" s="10"/>
+      <c r="W217" s="10"/>
+    </row>
+    <row r="218" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+      <c r="N218" s="10"/>
+      <c r="O218" s="10"/>
+      <c r="P218" s="10"/>
+      <c r="Q218" s="10"/>
+      <c r="R218" s="10"/>
+      <c r="S218" s="10"/>
+      <c r="T218" s="10"/>
+      <c r="U218" s="10"/>
+      <c r="V218" s="10"/>
+      <c r="W218" s="10"/>
+    </row>
+    <row r="219" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="10"/>
+      <c r="N219" s="10"/>
+      <c r="O219" s="10"/>
+      <c r="P219" s="10"/>
+      <c r="Q219" s="10"/>
+      <c r="R219" s="10"/>
+      <c r="S219" s="10"/>
+      <c r="T219" s="10"/>
+      <c r="U219" s="10"/>
+      <c r="V219" s="10"/>
+      <c r="W219" s="10"/>
+    </row>
+    <row r="220" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+      <c r="N220" s="10"/>
+      <c r="O220" s="10"/>
+      <c r="P220" s="10"/>
+      <c r="Q220" s="10"/>
+      <c r="R220" s="10"/>
+      <c r="S220" s="10"/>
+      <c r="T220" s="10"/>
+      <c r="U220" s="10"/>
+      <c r="V220" s="10"/>
+      <c r="W220" s="10"/>
+    </row>
+    <row r="221" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10"/>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+      <c r="U221" s="10"/>
+      <c r="V221" s="10"/>
+      <c r="W221" s="10"/>
+    </row>
+    <row r="222" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="10"/>
+      <c r="S222" s="10"/>
+      <c r="T222" s="10"/>
+      <c r="U222" s="10"/>
+      <c r="V222" s="10"/>
+      <c r="W222" s="10"/>
+    </row>
+    <row r="223" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="10"/>
+      <c r="N223" s="10"/>
+      <c r="O223" s="10"/>
+      <c r="P223" s="10"/>
+      <c r="Q223" s="10"/>
+      <c r="R223" s="10"/>
+      <c r="S223" s="10"/>
+      <c r="T223" s="10"/>
+      <c r="U223" s="10"/>
+      <c r="V223" s="10"/>
+      <c r="W223" s="10"/>
+    </row>
+    <row r="224" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="10"/>
+      <c r="N224" s="10"/>
+      <c r="O224" s="10"/>
+      <c r="P224" s="10"/>
+      <c r="Q224" s="10"/>
+      <c r="R224" s="10"/>
+      <c r="S224" s="10"/>
+      <c r="T224" s="10"/>
+      <c r="U224" s="10"/>
+      <c r="V224" s="10"/>
+      <c r="W224" s="10"/>
+    </row>
+    <row r="225" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="10"/>
+      <c r="N225" s="10"/>
+      <c r="O225" s="10"/>
+      <c r="P225" s="10"/>
+      <c r="Q225" s="10"/>
+      <c r="R225" s="10"/>
+      <c r="S225" s="10"/>
+      <c r="T225" s="10"/>
+      <c r="U225" s="10"/>
+      <c r="V225" s="10"/>
+      <c r="W225" s="10"/>
+    </row>
+    <row r="226" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="6"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
+      <c r="K226" s="13"/>
+      <c r="L226" s="13"/>
+      <c r="M226" s="13"/>
+      <c r="N226" s="13"/>
+      <c r="O226" s="13"/>
+      <c r="P226" s="13"/>
+      <c r="Q226" s="13"/>
+      <c r="R226" s="13"/>
+      <c r="S226" s="13"/>
+      <c r="T226" s="13"/>
+      <c r="U226" s="13"/>
+      <c r="V226" s="13"/>
+      <c r="W226" s="13"/>
+    </row>
+    <row r="227" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
+      <c r="L227" s="10"/>
+      <c r="M227" s="10"/>
+      <c r="N227" s="10"/>
+      <c r="O227" s="10"/>
+      <c r="P227" s="10"/>
+      <c r="Q227" s="10"/>
+      <c r="R227" s="10"/>
+      <c r="S227" s="10"/>
+      <c r="T227" s="10"/>
+      <c r="U227" s="10"/>
+      <c r="V227" s="10"/>
+      <c r="W227" s="10"/>
+    </row>
+    <row r="228" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="10"/>
+      <c r="O228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
+      <c r="S228" s="10"/>
+      <c r="T228" s="10"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
+    </row>
+    <row r="229" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="10"/>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
+    </row>
+    <row r="230" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="10"/>
+      <c r="N230" s="10"/>
+      <c r="O230" s="10"/>
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
+      <c r="S230" s="10"/>
+      <c r="T230" s="10"/>
+      <c r="U230" s="10"/>
+      <c r="V230" s="10"/>
+      <c r="W230" s="10"/>
+    </row>
+    <row r="231" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+      <c r="N231" s="10"/>
+      <c r="O231" s="10"/>
+      <c r="P231" s="10"/>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="S231" s="10"/>
+      <c r="T231" s="10"/>
+      <c r="U231" s="10"/>
+      <c r="V231" s="10"/>
+      <c r="W231" s="10"/>
+    </row>
+    <row r="232" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="10"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+      <c r="W232" s="10"/>
+    </row>
+    <row r="233" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10"/>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+      <c r="U233" s="10"/>
+      <c r="V233" s="10"/>
+      <c r="W233" s="10"/>
+    </row>
+    <row r="234" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="10"/>
+      <c r="R234" s="10"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="10"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+      <c r="W234" s="10"/>
+    </row>
+    <row r="235" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10"/>
+      <c r="R235" s="10"/>
+      <c r="S235" s="10"/>
+      <c r="T235" s="10"/>
+      <c r="U235" s="10"/>
+      <c r="V235" s="10"/>
+      <c r="W235" s="10"/>
+    </row>
+    <row r="236" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+      <c r="P236" s="10"/>
+      <c r="Q236" s="10"/>
+      <c r="R236" s="10"/>
+      <c r="S236" s="10"/>
+      <c r="T236" s="10"/>
+      <c r="U236" s="10"/>
+      <c r="V236" s="10"/>
+      <c r="W236" s="10"/>
+    </row>
+    <row r="237" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="10"/>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+      <c r="P237" s="10"/>
+      <c r="Q237" s="10"/>
+      <c r="R237" s="10"/>
+      <c r="S237" s="10"/>
+      <c r="T237" s="10"/>
+      <c r="U237" s="10"/>
+      <c r="V237" s="10"/>
+      <c r="W237" s="10"/>
+    </row>
+    <row r="238" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="K238" s="10"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="10"/>
+      <c r="P238" s="10"/>
+      <c r="Q238" s="10"/>
+      <c r="R238" s="10"/>
+      <c r="S238" s="10"/>
+      <c r="T238" s="10"/>
+      <c r="U238" s="10"/>
+      <c r="V238" s="10"/>
+      <c r="W238" s="10"/>
+    </row>
+    <row r="239" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
+      <c r="S239" s="10"/>
+      <c r="T239" s="10"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="10"/>
+      <c r="W239" s="10"/>
+    </row>
+    <row r="240" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="10"/>
+      <c r="S240" s="10"/>
+      <c r="T240" s="10"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="10"/>
+      <c r="W240" s="10"/>
+    </row>
+    <row r="241" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
+      <c r="S241" s="10"/>
+      <c r="T241" s="10"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+      <c r="W241" s="10"/>
+    </row>
+    <row r="242" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="10"/>
+      <c r="N242" s="10"/>
+      <c r="O242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="10"/>
+      <c r="S242" s="10"/>
+      <c r="T242" s="10"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="10"/>
+      <c r="W242" s="10"/>
+    </row>
+    <row r="243" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
+      <c r="M243" s="10"/>
+      <c r="N243" s="10"/>
+      <c r="O243" s="10"/>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
+      <c r="S243" s="10"/>
+      <c r="T243" s="10"/>
+      <c r="U243" s="10"/>
+      <c r="V243" s="10"/>
+      <c r="W243" s="10"/>
+    </row>
+    <row r="244" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="10"/>
+      <c r="M244" s="10"/>
+      <c r="N244" s="10"/>
+      <c r="O244" s="10"/>
+      <c r="P244" s="10"/>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
+      <c r="S244" s="10"/>
+      <c r="T244" s="10"/>
+      <c r="U244" s="10"/>
+      <c r="V244" s="10"/>
+      <c r="W244" s="10"/>
+    </row>
+    <row r="245" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+      <c r="W245" s="10"/>
+    </row>
+    <row r="246" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
+      <c r="M246" s="10"/>
+      <c r="N246" s="10"/>
+      <c r="O246" s="10"/>
+      <c r="P246" s="10"/>
+      <c r="Q246" s="10"/>
+      <c r="R246" s="10"/>
+      <c r="S246" s="10"/>
+      <c r="T246" s="10"/>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
+      <c r="W246" s="10"/>
+    </row>
+    <row r="247" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="10"/>
+      <c r="M247" s="10"/>
+      <c r="N247" s="10"/>
+      <c r="O247" s="10"/>
+      <c r="P247" s="10"/>
+      <c r="Q247" s="10"/>
+      <c r="R247" s="10"/>
+      <c r="S247" s="10"/>
+      <c r="T247" s="10"/>
+      <c r="U247" s="10"/>
+      <c r="V247" s="10"/>
+      <c r="W247" s="10"/>
+    </row>
+    <row r="248" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
+      <c r="L248" s="10"/>
+      <c r="M248" s="10"/>
+      <c r="N248" s="10"/>
+      <c r="O248" s="10"/>
+      <c r="P248" s="10"/>
+      <c r="Q248" s="10"/>
+      <c r="R248" s="10"/>
+      <c r="S248" s="10"/>
+      <c r="T248" s="10"/>
+      <c r="U248" s="10"/>
+      <c r="V248" s="10"/>
+      <c r="W248" s="10"/>
+    </row>
+    <row r="249" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10"/>
+      <c r="R249" s="10"/>
+      <c r="S249" s="10"/>
+      <c r="T249" s="10"/>
+      <c r="U249" s="10"/>
+      <c r="V249" s="10"/>
+      <c r="W249" s="10"/>
+    </row>
+    <row r="250" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
+      <c r="L250" s="10"/>
+      <c r="M250" s="10"/>
+      <c r="N250" s="10"/>
+      <c r="O250" s="10"/>
+      <c r="P250" s="10"/>
+      <c r="Q250" s="10"/>
+      <c r="R250" s="10"/>
+      <c r="S250" s="10"/>
+      <c r="T250" s="10"/>
+      <c r="U250" s="10"/>
+      <c r="V250" s="10"/>
+      <c r="W250" s="10"/>
+    </row>
+    <row r="251" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="10"/>
+      <c r="N251" s="10"/>
+      <c r="O251" s="10"/>
+      <c r="P251" s="10"/>
+      <c r="Q251" s="10"/>
+      <c r="R251" s="10"/>
+      <c r="S251" s="10"/>
+      <c r="T251" s="10"/>
+      <c r="U251" s="10"/>
+      <c r="V251" s="10"/>
+      <c r="W251" s="10"/>
+    </row>
+    <row r="252" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10"/>
+      <c r="L252" s="10"/>
+      <c r="M252" s="10"/>
+      <c r="N252" s="10"/>
+      <c r="O252" s="10"/>
+      <c r="P252" s="10"/>
+      <c r="Q252" s="10"/>
+      <c r="R252" s="10"/>
+      <c r="S252" s="10"/>
+      <c r="T252" s="10"/>
+      <c r="U252" s="10"/>
+      <c r="V252" s="10"/>
+      <c r="W252" s="10"/>
+    </row>
+    <row r="253" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10"/>
+      <c r="L253" s="10"/>
+      <c r="M253" s="10"/>
+      <c r="N253" s="10"/>
+      <c r="O253" s="10"/>
+      <c r="P253" s="10"/>
+      <c r="Q253" s="10"/>
+      <c r="R253" s="10"/>
+      <c r="S253" s="10"/>
+      <c r="T253" s="10"/>
+      <c r="U253" s="10"/>
+      <c r="V253" s="10"/>
+      <c r="W253" s="10"/>
+    </row>
+    <row r="254" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="10"/>
+      <c r="L254" s="10"/>
+      <c r="M254" s="10"/>
+      <c r="N254" s="10"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="10"/>
+      <c r="Q254" s="10"/>
+      <c r="R254" s="10"/>
+      <c r="S254" s="10"/>
+      <c r="T254" s="10"/>
+      <c r="U254" s="10"/>
+      <c r="V254" s="10"/>
+      <c r="W254" s="10"/>
+    </row>
+    <row r="255" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="10"/>
+      <c r="Q255" s="10"/>
+      <c r="R255" s="10"/>
+      <c r="S255" s="10"/>
+      <c r="T255" s="10"/>
+      <c r="U255" s="10"/>
+      <c r="V255" s="10"/>
+      <c r="W255" s="10"/>
+    </row>
+    <row r="256" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
+      <c r="L256" s="10"/>
+      <c r="M256" s="10"/>
+      <c r="N256" s="10"/>
+      <c r="O256" s="10"/>
+      <c r="P256" s="10"/>
+      <c r="Q256" s="10"/>
+      <c r="R256" s="10"/>
+      <c r="S256" s="10"/>
+      <c r="T256" s="10"/>
+      <c r="U256" s="10"/>
+      <c r="V256" s="10"/>
+      <c r="W256" s="10"/>
+    </row>
+    <row r="257" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="K257" s="10"/>
+      <c r="L257" s="10"/>
+      <c r="M257" s="10"/>
+      <c r="N257" s="10"/>
+      <c r="O257" s="10"/>
+      <c r="P257" s="10"/>
+      <c r="Q257" s="10"/>
+      <c r="R257" s="10"/>
+      <c r="S257" s="10"/>
+      <c r="T257" s="10"/>
+      <c r="U257" s="10"/>
+      <c r="V257" s="10"/>
+      <c r="W257" s="10"/>
+    </row>
+    <row r="258" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10"/>
+      <c r="Q258" s="10"/>
+      <c r="R258" s="10"/>
+      <c r="S258" s="10"/>
+      <c r="T258" s="10"/>
+      <c r="U258" s="10"/>
+      <c r="V258" s="10"/>
+      <c r="W258" s="10"/>
+    </row>
+    <row r="259" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
+      <c r="L259" s="10"/>
+      <c r="M259" s="10"/>
+      <c r="N259" s="10"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="10"/>
+      <c r="Q259" s="10"/>
+      <c r="R259" s="10"/>
+      <c r="S259" s="10"/>
+      <c r="T259" s="10"/>
+      <c r="U259" s="10"/>
+      <c r="V259" s="10"/>
+      <c r="W259" s="10"/>
+    </row>
+    <row r="260" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G260" s="10"/>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+      <c r="K260" s="10"/>
+      <c r="L260" s="10"/>
+      <c r="M260" s="10"/>
+      <c r="N260" s="10"/>
+      <c r="O260" s="10"/>
+      <c r="P260" s="10"/>
+      <c r="Q260" s="10"/>
+      <c r="R260" s="10"/>
+      <c r="S260" s="10"/>
+      <c r="T260" s="10"/>
+      <c r="U260" s="10"/>
+      <c r="V260" s="10"/>
+      <c r="W260" s="10"/>
+    </row>
+    <row r="261" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+      <c r="K261" s="10"/>
+      <c r="L261" s="10"/>
+      <c r="M261" s="10"/>
+      <c r="N261" s="10"/>
+      <c r="O261" s="10"/>
+      <c r="P261" s="10"/>
+      <c r="Q261" s="10"/>
+      <c r="R261" s="10"/>
+      <c r="S261" s="10"/>
+      <c r="T261" s="10"/>
+      <c r="U261" s="10"/>
+      <c r="V261" s="10"/>
+      <c r="W261" s="10"/>
+    </row>
+    <row r="262" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G262" s="10"/>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="10"/>
+      <c r="K262" s="10"/>
+      <c r="L262" s="10"/>
+      <c r="M262" s="10"/>
+      <c r="N262" s="10"/>
+      <c r="O262" s="10"/>
+      <c r="P262" s="10"/>
+      <c r="Q262" s="10"/>
+      <c r="R262" s="10"/>
+      <c r="S262" s="10"/>
+      <c r="T262" s="10"/>
+      <c r="U262" s="10"/>
+      <c r="V262" s="10"/>
+      <c r="W262" s="10"/>
+    </row>
+    <row r="263" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+      <c r="K263" s="10"/>
+      <c r="L263" s="10"/>
+      <c r="M263" s="10"/>
+      <c r="N263" s="10"/>
+      <c r="O263" s="10"/>
+      <c r="P263" s="10"/>
+      <c r="Q263" s="10"/>
+      <c r="R263" s="10"/>
+      <c r="S263" s="10"/>
+      <c r="T263" s="10"/>
+      <c r="U263" s="10"/>
+      <c r="V263" s="10"/>
+      <c r="W263" s="10"/>
+    </row>
+    <row r="264" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G264" s="10"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
+      <c r="L264" s="10"/>
+      <c r="M264" s="10"/>
+      <c r="N264" s="10"/>
+      <c r="O264" s="10"/>
+      <c r="P264" s="10"/>
+      <c r="Q264" s="10"/>
+      <c r="R264" s="10"/>
+      <c r="S264" s="10"/>
+      <c r="T264" s="10"/>
+      <c r="U264" s="10"/>
+      <c r="V264" s="10"/>
+      <c r="W264" s="10"/>
+    </row>
+    <row r="265" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F265" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10"/>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
+      <c r="T265" s="10"/>
+      <c r="U265" s="10"/>
+      <c r="V265" s="10"/>
+      <c r="W265" s="10"/>
+    </row>
+    <row r="266" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
+      <c r="L266" s="10"/>
+      <c r="M266" s="10"/>
+      <c r="N266" s="10"/>
+      <c r="O266" s="10"/>
+      <c r="P266" s="10"/>
+      <c r="Q266" s="10"/>
+      <c r="R266" s="10"/>
+      <c r="S266" s="10"/>
+      <c r="T266" s="10"/>
+      <c r="U266" s="10"/>
+      <c r="V266" s="10"/>
+      <c r="W266" s="10"/>
+    </row>
+    <row r="267" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
+      <c r="T267" s="10"/>
+      <c r="U267" s="10"/>
+      <c r="V267" s="10"/>
+      <c r="W267" s="10"/>
+    </row>
+    <row r="268" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F268" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+      <c r="K268" s="10"/>
+      <c r="L268" s="10"/>
+      <c r="M268" s="10"/>
+      <c r="N268" s="10"/>
+      <c r="O268" s="10"/>
+      <c r="P268" s="10"/>
+      <c r="Q268" s="10"/>
+      <c r="R268" s="10"/>
+      <c r="S268" s="10"/>
+      <c r="T268" s="10"/>
+      <c r="U268" s="10"/>
+      <c r="V268" s="10"/>
+      <c r="W268" s="10"/>
+    </row>
+    <row r="269" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="10"/>
+      <c r="S269" s="10"/>
+      <c r="T269" s="10"/>
+      <c r="U269" s="10"/>
+      <c r="V269" s="10"/>
+      <c r="W269" s="10"/>
+    </row>
+    <row r="270" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F270" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="10"/>
+      <c r="K270" s="10"/>
+      <c r="L270" s="10"/>
+      <c r="M270" s="10"/>
+      <c r="N270" s="10"/>
+      <c r="O270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="10"/>
+      <c r="R270" s="10"/>
+      <c r="S270" s="10"/>
+      <c r="T270" s="10"/>
+      <c r="U270" s="10"/>
+      <c r="V270" s="10"/>
+      <c r="W270" s="10"/>
+    </row>
+    <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="15"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="19"/>
+      <c r="H271" s="19"/>
+      <c r="I271" s="19"/>
+      <c r="J271" s="19"/>
+      <c r="K271" s="19"/>
+      <c r="L271" s="19"/>
+      <c r="M271" s="19"/>
+      <c r="N271" s="19"/>
+      <c r="O271" s="19"/>
+      <c r="P271" s="19"/>
+      <c r="Q271" s="19"/>
+      <c r="R271" s="19"/>
+      <c r="S271" s="19"/>
+      <c r="T271" s="19"/>
+      <c r="U271" s="19"/>
+      <c r="V271" s="19"/>
+      <c r="W271" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/core/utils/docs_proj_p/distgradeunificada15.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada15.xlsx
@@ -997,9 +997,9 @@
   <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P81" activeCellId="0" sqref="P81"/>
+      <selection pane="bottomLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2104,18 +2104,40 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="J29" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="L29" s="10" t="n">
+        <v>368</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <v>308</v>
+      </c>
+      <c r="N29" s="10" t="n">
+        <v>348</v>
+      </c>
+      <c r="O29" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="P29" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q29" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="R29" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="S29" s="10" t="n">
+        <v>26</v>
+      </c>
       <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+      <c r="U29" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -2416,15 +2438,33 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="J35" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K35" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="L35" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="M35" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="N35" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="O35" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="P35" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R35" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -2453,16 +2493,36 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
+      <c r="J36" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>194</v>
+      </c>
+      <c r="L36" s="10" t="n">
+        <v>218</v>
+      </c>
+      <c r="M36" s="10" t="n">
+        <v>234</v>
+      </c>
+      <c r="N36" s="10" t="n">
+        <v>216</v>
+      </c>
+      <c r="O36" s="10" t="n">
+        <v>140</v>
+      </c>
+      <c r="P36" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q36" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="R36" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="S36" s="10" t="n">
+        <v>14</v>
+      </c>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
@@ -2490,16 +2550,36 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="J37" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="L37" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="M37" s="10" t="n">
+        <v>212</v>
+      </c>
+      <c r="N37" s="10" t="n">
+        <v>178</v>
+      </c>
+      <c r="O37" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="P37" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="Q37" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="R37" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="S37" s="10" t="n">
+        <v>12</v>
+      </c>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -2527,18 +2607,40 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
+      <c r="J38" s="10" t="n">
+        <v>212</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>248</v>
+      </c>
+      <c r="L38" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="M38" s="10" t="n">
+        <v>398</v>
+      </c>
+      <c r="N38" s="10" t="n">
+        <v>320</v>
+      </c>
+      <c r="O38" s="10" t="n">
+        <v>204</v>
+      </c>
+      <c r="P38" s="10" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q38" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="R38" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="S38" s="10" t="n">
+        <v>42</v>
+      </c>
       <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
+      <c r="U38" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>
@@ -2564,18 +2666,40 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="J39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
+      <c r="U39" s="10" t="n">
+        <v>7</v>
+      </c>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
     </row>
@@ -2601,18 +2725,40 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
+      <c r="J40" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="K40" s="10" t="n">
+        <v>208</v>
+      </c>
+      <c r="L40" s="10" t="n">
+        <v>232</v>
+      </c>
+      <c r="M40" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="N40" s="10" t="n">
+        <v>238</v>
+      </c>
+      <c r="O40" s="10" t="n">
+        <v>168</v>
+      </c>
+      <c r="P40" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q40" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="R40" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="S40" s="10" t="n">
+        <v>44</v>
+      </c>
       <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
+      <c r="U40" s="10" t="n">
+        <v>34</v>
+      </c>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
     </row>
@@ -2638,18 +2784,40 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="J41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="M41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="O41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
+      <c r="U41" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
     </row>
@@ -2675,18 +2843,40 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
+      <c r="J42" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L42" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="M42" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="N42" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O42" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="P42" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="R42" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
+      <c r="U42" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
     </row>
@@ -2712,18 +2902,40 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="J43" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K43" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="L43" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="M43" s="10" t="n">
+        <v>190</v>
+      </c>
+      <c r="N43" s="10" t="n">
+        <v>230</v>
+      </c>
+      <c r="O43" s="10" t="n">
+        <v>232</v>
+      </c>
+      <c r="P43" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q43" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="R43" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="S43" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="U43" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
     </row>
@@ -2749,16 +2961,36 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
+      <c r="J44" s="10" t="n">
+        <v>110</v>
+      </c>
+      <c r="K44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10" t="n">
+        <v>390</v>
+      </c>
+      <c r="M44" s="10" t="n">
+        <v>290</v>
+      </c>
+      <c r="N44" s="10" t="n">
+        <v>470</v>
+      </c>
+      <c r="O44" s="10" t="n">
+        <v>470</v>
+      </c>
+      <c r="P44" s="10" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q44" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="R44" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="S44" s="10" t="n">
+        <v>60</v>
+      </c>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
@@ -3847,18 +4079,40 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
+      <c r="J74" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="K74" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L74" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="M74" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N74" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="O74" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="P74" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="R74" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S74" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
+      <c r="U74" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V74" s="10"/>
       <c r="W74" s="10"/>
     </row>
@@ -4210,16 +4464,36 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
+      <c r="J81" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K81" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="L81" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="M81" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="N81" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="O81" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="P81" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q81" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="R81" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="T81" s="10"/>
       <c r="U81" s="10"/>
       <c r="V81" s="10"/>
@@ -4247,16 +4521,36 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
+      <c r="J82" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="K82" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="L82" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="M82" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="N82" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="O82" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="P82" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="R82" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="S82" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
@@ -4284,18 +4578,40 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
+      <c r="J83" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="K83" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="L83" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="M83" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="N83" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O83" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="P83" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q83" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="R83" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="S83" s="10" t="n">
+        <v>11</v>
+      </c>
       <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
+      <c r="U83" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="V83" s="10"/>
       <c r="W83" s="10"/>
     </row>
@@ -4321,18 +4637,40 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
+      <c r="J84" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="K84" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L84" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="M84" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="N84" s="10" t="n">
+        <v>118</v>
+      </c>
+      <c r="O84" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="P84" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q84" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="R84" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S84" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
+      <c r="U84" s="10" t="n">
+        <v>7</v>
+      </c>
       <c r="V84" s="10"/>
       <c r="W84" s="10"/>
     </row>
@@ -4358,18 +4696,40 @@
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
+      <c r="J85" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K85" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="L85" s="10" t="n">
+        <v>69</v>
+      </c>
+      <c r="M85" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="N85" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="O85" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="P85" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q85" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="R85" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="S85" s="10" t="n">
+        <v>15</v>
+      </c>
       <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
+      <c r="U85" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="V85" s="10"/>
       <c r="W85" s="10"/>
     </row>
@@ -4395,18 +4755,40 @@
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
+      <c r="J86" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K86" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L86" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="M86" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="N86" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="O86" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="P86" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="R86" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="S86" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
+      <c r="U86" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
     </row>
@@ -4432,18 +4814,40 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
+      <c r="J87" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L87" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="M87" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="N87" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O87" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P87" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
+      <c r="U87" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V87" s="10"/>
       <c r="W87" s="10"/>
     </row>
@@ -4469,18 +4873,40 @@
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
+      <c r="J88" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K88" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L88" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="M88" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="N88" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="O88" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="P88" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R88" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S88" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
+      <c r="U88" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
     </row>
@@ -4506,16 +4932,36 @@
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
+      <c r="J89" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K89" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="L89" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="M89" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="N89" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="O89" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="P89" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q89" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="R89" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="S89" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="T89" s="10"/>
       <c r="U89" s="10"/>
       <c r="V89" s="10"/>
@@ -5604,18 +6050,40 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="10"/>
-      <c r="P119" s="10"/>
-      <c r="Q119" s="10"/>
-      <c r="R119" s="10"/>
-      <c r="S119" s="10"/>
+      <c r="J119" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K119" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L119" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="M119" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="N119" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="O119" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="P119" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q119" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="R119" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S119" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
+      <c r="U119" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V119" s="10"/>
       <c r="W119" s="10"/>
     </row>
@@ -5913,31 +6381,31 @@
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K125" s="10" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="L125" s="10" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M125" s="10" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N125" s="10" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="O125" s="10" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P125" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q125" s="10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R125" s="10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
@@ -5967,16 +6435,36 @@
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
-      <c r="Q126" s="10"/>
-      <c r="R126" s="10"/>
-      <c r="S126" s="10"/>
+      <c r="J126" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="K126" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L126" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="M126" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="N126" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="O126" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="P126" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q126" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R126" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S126" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="T126" s="10"/>
       <c r="U126" s="10"/>
       <c r="V126" s="10"/>
@@ -6004,16 +6492,36 @@
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-      <c r="R127" s="10"/>
-      <c r="S127" s="10"/>
+      <c r="J127" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K127" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="L127" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="M127" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="N127" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="O127" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="P127" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q127" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R127" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="T127" s="10"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
@@ -6041,18 +6549,40 @@
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="10"/>
-      <c r="R128" s="10"/>
-      <c r="S128" s="10"/>
+      <c r="J128" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="K128" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="L128" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="M128" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="N128" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="O128" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="P128" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q128" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="R128" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S128" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="T128" s="10"/>
-      <c r="U128" s="10"/>
+      <c r="U128" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V128" s="10"/>
       <c r="W128" s="10"/>
     </row>
@@ -6078,16 +6608,36 @@
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="10"/>
-      <c r="S129" s="10"/>
+      <c r="J129" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K129" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="L129" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="M129" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="N129" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="O129" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="P129" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q129" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="R129" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="S129" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="T129" s="10"/>
       <c r="U129" s="10"/>
       <c r="V129" s="10"/>
@@ -6115,18 +6665,40 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
-      <c r="R130" s="10"/>
-      <c r="S130" s="10"/>
+      <c r="J130" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K130" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="L130" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="M130" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="N130" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="O130" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="P130" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q130" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="R130" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S130" s="10" t="n">
+        <v>7</v>
+      </c>
       <c r="T130" s="10"/>
-      <c r="U130" s="10"/>
+      <c r="U130" s="10" t="n">
+        <v>7</v>
+      </c>
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
     </row>
@@ -6152,18 +6724,40 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
+      <c r="J131" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K131" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L131" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="M131" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="N131" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="O131" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="P131" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q131" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R131" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="S131" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
+      <c r="U131" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V131" s="10"/>
       <c r="W131" s="10"/>
     </row>
@@ -6189,18 +6783,40 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-      <c r="R132" s="10"/>
-      <c r="S132" s="10"/>
+      <c r="J132" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L132" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M132" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="N132" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="O132" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P132" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q132" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R132" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="T132" s="10"/>
-      <c r="U132" s="10"/>
+      <c r="U132" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="V132" s="10"/>
       <c r="W132" s="10"/>
     </row>
@@ -6226,18 +6842,40 @@
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
+      <c r="J133" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K133" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="L133" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="M133" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="N133" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="O133" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="P133" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q133" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R133" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="S133" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="T133" s="10"/>
-      <c r="U133" s="10"/>
+      <c r="U133" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="V133" s="10"/>
       <c r="W133" s="10"/>
     </row>
@@ -6263,16 +6901,36 @@
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="10"/>
+      <c r="J134" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K134" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="L134" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="M134" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="N134" s="10" t="n">
+        <v>130</v>
+      </c>
+      <c r="O134" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="P134" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q134" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="R134" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="S134" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="T134" s="10"/>
       <c r="U134" s="10"/>
       <c r="V134" s="10"/>

--- a/core/utils/docs_proj_p/distgradeunificada15.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada15.xlsx
@@ -997,9 +997,9 @@
   <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="N106" activeCellId="0" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,11 +1104,21 @@
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="I2" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1139,10 +1149,18 @@
       <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="G3" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>112</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>196</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>14</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -1177,11 +1195,21 @@
         <v>32</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="H4" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1213,11 +1241,21 @@
       <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="G5" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1251,12 +1289,24 @@
         <v>37</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="H6" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -1287,10 +1337,18 @@
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="G7" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1326,9 +1384,15 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1362,11 +1426,21 @@
         <v>44</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="H9" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1400,13 +1474,25 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="I10" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>240</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="N10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1435,9 +1521,15 @@
       <c r="F11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>176</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>138</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1474,10 +1566,18 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="I12" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -1511,11 +1611,21 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="I13" s="10" t="n">
+        <v>164</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>384</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>148</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -1546,13 +1656,27 @@
       <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="G14" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>252</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>198</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -1620,13 +1744,27 @@
       <c r="F16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="G16" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -3079,11 +3217,21 @@
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="I47" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J47" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -3114,10 +3262,18 @@
       <c r="F48" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="G48" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H48" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I48" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="J48" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -3152,11 +3308,21 @@
         <v>32</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="H49" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I49" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J49" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K49" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L49" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -3188,11 +3354,21 @@
       <c r="F50" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
+      <c r="G50" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K50" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -3226,12 +3402,24 @@
         <v>37</v>
       </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
+      <c r="H51" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I51" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J51" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
@@ -3262,10 +3450,18 @@
       <c r="F52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="G52" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H52" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I52" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -3301,9 +3497,15 @@
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="I53" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K53" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -3337,10 +3539,18 @@
         <v>44</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
+      <c r="H54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K54" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -3375,13 +3585,25 @@
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="I55" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="K55" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="L55" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
+      <c r="N55" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
@@ -3410,9 +3632,15 @@
       <c r="F56" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="G56" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H56" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I56" s="10" t="n">
+        <v>35</v>
+      </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
@@ -3449,10 +3677,18 @@
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
+      <c r="I57" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J57" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K57" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="L57" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -3486,11 +3722,21 @@
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="I58" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="J58" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="K58" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="L58" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -3521,13 +3767,27 @@
       <c r="F59" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="G59" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H59" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I59" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="J59" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K59" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L59" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -3595,13 +3855,27 @@
       <c r="F61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="G61" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H61" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="I61" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="J61" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="K61" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L61" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M61" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -5050,11 +5324,21 @@
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
+      <c r="I92" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J92" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K92" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L92" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M92" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
@@ -5085,10 +5369,18 @@
       <c r="F93" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
+      <c r="G93" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H93" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="I93" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J93" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
@@ -5123,11 +5415,21 @@
         <v>32</v>
       </c>
       <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="H94" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I94" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J94" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K94" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L94" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -5159,10 +5461,18 @@
       <c r="F95" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
+      <c r="G95" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J95" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
@@ -5197,11 +5507,21 @@
         <v>37</v>
       </c>
       <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
+      <c r="H96" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I96" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J96" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K96" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L96" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -5233,10 +5553,18 @@
       <c r="F97" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+      <c r="G97" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H97" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I97" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
@@ -5272,9 +5600,15 @@
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
+      <c r="I98" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="K98" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
@@ -5308,10 +5642,18 @@
         <v>44</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="H99" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I99" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K99" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
@@ -5346,13 +5688,25 @@
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
+      <c r="I100" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="K100" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="L100" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
+      <c r="N100" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
@@ -5381,9 +5735,15 @@
       <c r="F101" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+      <c r="G101" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H101" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="I101" s="10" t="n">
+        <v>34</v>
+      </c>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
@@ -5420,10 +5780,18 @@
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
+      <c r="I102" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J102" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="K102" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L102" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -5457,11 +5825,21 @@
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
+      <c r="I103" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J103" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K103" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="L103" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M103" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
@@ -5492,13 +5870,27 @@
       <c r="F104" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
+      <c r="G104" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="H104" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I104" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="J104" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="K104" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L104" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
@@ -5566,13 +5958,27 @@
       <c r="F106" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
+      <c r="G106" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H106" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I106" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J106" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="K106" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L106" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M106" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>

--- a/core/utils/docs_proj_p/distgradeunificada15.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada15.xlsx
@@ -495,7 +495,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +563,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFD7"/>
       <name val="Calibri"/>
@@ -584,7 +591,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +608,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -663,7 +676,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,6 +721,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,27 +737,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,7 +817,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -997,9 +1014,9 @@
   <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N106" activeCellId="0" sqref="N106"/>
+      <selection pane="bottomLeft" activeCell="I142" activeCellId="0" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1487,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="M10" s="10"/>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="O10" s="10" t="n">
+      <c r="O10" s="11" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="10"/>
@@ -1709,11 +1726,21 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="I15" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1797,10 +1824,18 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="I17" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1832,10 +1867,18 @@
       <c r="F18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>160</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1869,12 +1912,24 @@
       <c r="F19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="G19" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>240</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>220</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L19" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -1907,12 +1962,24 @@
         <v>73</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="H20" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>132</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1943,13 +2010,27 @@
       <c r="F21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="G21" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -1982,10 +2063,18 @@
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="I22" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2017,13 +2106,27 @@
       <c r="F23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="G23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>148</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -2055,12 +2158,24 @@
         <v>85</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="H24" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="M24" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -2091,9 +2206,15 @@
       <c r="F25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="G25" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>440</v>
+      </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2128,10 +2249,18 @@
       <c r="F26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="G26" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J26" s="10" t="n">
+        <v>20</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -2165,10 +2294,18 @@
       <c r="F27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="G27" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>16</v>
+      </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -2202,12 +2339,24 @@
       <c r="F28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="G28" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -3173,28 +3322,28 @@
     </row>
     <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
@@ -3598,10 +3747,10 @@
         <v>5</v>
       </c>
       <c r="M55" s="10"/>
-      <c r="N55" s="10" t="n">
+      <c r="N55" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="O55" s="10" t="n">
+      <c r="O55" s="11" t="n">
         <v>2</v>
       </c>
       <c r="P55" s="10"/>
@@ -3820,11 +3969,21 @@
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="I60" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J60" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K60" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L60" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -3908,9 +4067,15 @@
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="I62" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="K62" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -3943,10 +4108,18 @@
       <c r="F63" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="G63" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H63" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I63" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J63" s="10" t="n">
+        <v>40</v>
+      </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -3980,12 +4153,24 @@
       <c r="F64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
+      <c r="G64" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H64" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="I64" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J64" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="K64" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L64" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -4018,12 +4203,24 @@
         <v>73</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
+      <c r="H65" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I65" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J65" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="K65" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -4054,13 +4251,27 @@
       <c r="F66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
+      <c r="G66" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H66" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I66" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K66" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L66" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -4093,10 +4304,18 @@
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
+      <c r="I67" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K67" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -4129,9 +4348,15 @@
         <v>82</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+      <c r="H68" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="I68" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="J68" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
@@ -4166,12 +4391,24 @@
         <v>85</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
+      <c r="H69" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J69" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K69" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L69" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -4202,9 +4439,15 @@
       <c r="F70" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="G70" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H70" s="10" t="n">
+        <v>75</v>
+      </c>
+      <c r="I70" s="10" t="n">
+        <v>220</v>
+      </c>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
@@ -4239,10 +4482,18 @@
       <c r="F71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="G71" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I71" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J71" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
@@ -4276,10 +4527,18 @@
       <c r="F72" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="G72" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H72" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="I72" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J72" s="10" t="n">
+        <v>4</v>
+      </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
@@ -4313,12 +4572,24 @@
       <c r="F73" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
+      <c r="G73" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H73" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J73" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="K73" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L73" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -5280,28 +5551,28 @@
     </row>
     <row r="91" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="14"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
@@ -5701,10 +5972,10 @@
         <v>5</v>
       </c>
       <c r="M100" s="10"/>
-      <c r="N100" s="10" t="n">
+      <c r="N100" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="O100" s="10" t="n">
+      <c r="O100" s="11" t="n">
         <v>2</v>
       </c>
       <c r="P100" s="10"/>
@@ -5923,11 +6194,21 @@
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
+      <c r="I105" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J105" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K105" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="L105" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
@@ -6011,9 +6292,15 @@
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
+      <c r="I107" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J107" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K107" s="10" t="n">
+        <v>10</v>
+      </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
@@ -6046,10 +6333,18 @@
       <c r="F108" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
+      <c r="G108" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="I108" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J108" s="10" t="n">
+        <v>40</v>
+      </c>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6083,12 +6378,24 @@
       <c r="F109" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
+      <c r="G109" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H109" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="I109" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J109" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="K109" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L109" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -6121,12 +6428,24 @@
         <v>73</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
+      <c r="H110" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I110" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J110" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="K110" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L110" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
@@ -6157,13 +6476,27 @@
       <c r="F111" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
+      <c r="G111" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H111" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I111" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J111" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K111" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L111" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
@@ -6196,10 +6529,18 @@
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
+      <c r="I112" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J112" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="K112" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -6232,9 +6573,15 @@
         <v>82</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
+      <c r="H113" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="I113" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="J113" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
@@ -6269,12 +6616,24 @@
         <v>85</v>
       </c>
       <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
+      <c r="H114" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="J114" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K114" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L114" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M114" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
@@ -6342,10 +6701,18 @@
       <c r="F116" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
+      <c r="G116" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H116" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I116" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J116" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
       <c r="M116" s="10"/>
@@ -6379,10 +6746,18 @@
       <c r="F117" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
+      <c r="G117" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H117" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I117" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J117" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
@@ -6416,12 +6791,24 @@
       <c r="F118" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
+      <c r="G118" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H118" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I118" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J118" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K118" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L118" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
@@ -7381,28 +7768,28 @@
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
-      <c r="B136" s="11"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
-      <c r="O136" s="14"/>
-      <c r="P136" s="14"/>
-      <c r="Q136" s="14"/>
-      <c r="R136" s="14"/>
-      <c r="S136" s="14"/>
-      <c r="T136" s="14"/>
-      <c r="U136" s="14"/>
-      <c r="V136" s="14"/>
-      <c r="W136" s="14"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="15"/>
+      <c r="T136" s="15"/>
+      <c r="U136" s="15"/>
+      <c r="V136" s="15"/>
+      <c r="W136" s="15"/>
     </row>
     <row r="137" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
@@ -9034,28 +9421,28 @@
     </row>
     <row r="181" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="13"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="13"/>
-      <c r="K181" s="13"/>
-      <c r="L181" s="13"/>
-      <c r="M181" s="13"/>
-      <c r="N181" s="13"/>
-      <c r="O181" s="13"/>
-      <c r="P181" s="13"/>
-      <c r="Q181" s="13"/>
-      <c r="R181" s="13"/>
-      <c r="S181" s="13"/>
-      <c r="T181" s="13"/>
-      <c r="U181" s="13"/>
-      <c r="V181" s="13"/>
-      <c r="W181" s="13"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="14"/>
+      <c r="S181" s="14"/>
+      <c r="T181" s="14"/>
+      <c r="U181" s="14"/>
+      <c r="V181" s="14"/>
+      <c r="W181" s="14"/>
     </row>
     <row r="182" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
@@ -10687,28 +11074,28 @@
     </row>
     <row r="226" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="13"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="9"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="13"/>
-      <c r="I226" s="13"/>
-      <c r="J226" s="13"/>
-      <c r="K226" s="13"/>
-      <c r="L226" s="13"/>
-      <c r="M226" s="13"/>
-      <c r="N226" s="13"/>
-      <c r="O226" s="13"/>
-      <c r="P226" s="13"/>
-      <c r="Q226" s="13"/>
-      <c r="R226" s="13"/>
-      <c r="S226" s="13"/>
-      <c r="T226" s="13"/>
-      <c r="U226" s="13"/>
-      <c r="V226" s="13"/>
-      <c r="W226" s="13"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="14"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="14"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="14"/>
+      <c r="N226" s="14"/>
+      <c r="O226" s="14"/>
+      <c r="P226" s="14"/>
+      <c r="Q226" s="14"/>
+      <c r="R226" s="14"/>
+      <c r="S226" s="14"/>
+      <c r="T226" s="14"/>
+      <c r="U226" s="14"/>
+      <c r="V226" s="14"/>
+      <c r="W226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
@@ -12339,29 +12726,29 @@
       <c r="W270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="15"/>
-      <c r="B271" s="16"/>
-      <c r="C271" s="17"/>
-      <c r="D271" s="15"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="18"/>
-      <c r="G271" s="19"/>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="19"/>
-      <c r="K271" s="19"/>
-      <c r="L271" s="19"/>
-      <c r="M271" s="19"/>
-      <c r="N271" s="19"/>
-      <c r="O271" s="19"/>
-      <c r="P271" s="19"/>
-      <c r="Q271" s="19"/>
-      <c r="R271" s="19"/>
-      <c r="S271" s="19"/>
-      <c r="T271" s="19"/>
-      <c r="U271" s="19"/>
-      <c r="V271" s="19"/>
-      <c r="W271" s="19"/>
+      <c r="A271" s="16"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="19"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="20"/>
+      <c r="K271" s="20"/>
+      <c r="L271" s="20"/>
+      <c r="M271" s="20"/>
+      <c r="N271" s="20"/>
+      <c r="O271" s="20"/>
+      <c r="P271" s="20"/>
+      <c r="Q271" s="20"/>
+      <c r="R271" s="20"/>
+      <c r="S271" s="20"/>
+      <c r="T271" s="20"/>
+      <c r="U271" s="20"/>
+      <c r="V271" s="20"/>
+      <c r="W271" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
